--- a/Sprider  爪巴/xyz.xlsx
+++ b/Sprider  爪巴/xyz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18ABDE-2EF6-4B9D-9D59-272BB872A722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A8175-F60A-48AC-89B0-E3D0FCC7A1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="306">
   <si>
     <t>地址</t>
   </si>
@@ -34,12 +34,18 @@
     <t>解压密码回复</t>
   </si>
   <si>
+    <t xml:space="preserve"> pan.baidu.coms/1bikvRYhbj7ONTxsw67MnMA</t>
+  </si>
+  <si>
     <t>tw86</t>
   </si>
   <si>
     <t>福利姬韶陌陌</t>
   </si>
   <si>
+    <t>回复63获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/184Ih2ecdA7Q3jXgqMTVqZw</t>
   </si>
   <si>
@@ -49,6 +55,9 @@
     <t>福利姬工口小妖精</t>
   </si>
   <si>
+    <t>回复62获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/11ZvTSdkIhiIrsIkWnWl1nA </t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>福利姬软萌萝莉小仙</t>
   </si>
   <si>
+    <t>回复61获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lBkCrJmr9QFYheRJeSgJng</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>福利姬魔法少女小柠檬</t>
   </si>
   <si>
+    <t>回复60获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1hRd5yiPfOIsyQeSdzmrNlQ</t>
   </si>
   <si>
@@ -76,6 +91,9 @@
     <t>福利姬太宰子颖</t>
   </si>
   <si>
+    <t>回复59获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1fZGhQWqLxi8papSLUs6lzw</t>
   </si>
   <si>
@@ -85,6 +103,9 @@
     <t>福利姬少女九</t>
   </si>
   <si>
+    <t>回复58获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1VcTOCO6lvd9vYFPG4sqZbQ</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>福利姬液液酱</t>
   </si>
   <si>
+    <t>回复57获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1M0O6O3Urgvvu3zTtZ-NapA</t>
   </si>
   <si>
@@ -103,6 +127,9 @@
     <t>福利姬押尾猫</t>
   </si>
   <si>
+    <t>回复56获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1I-LAQC9FMBrrLS1jwFv95Q</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>福利姬呆萌橘子酱</t>
   </si>
   <si>
+    <t>回复55获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1kIuokjntOs4dfOWCMCc9iA</t>
   </si>
   <si>
@@ -121,12 +151,21 @@
     <t>福利姬橙香静静</t>
   </si>
   <si>
+    <t>回复54获取解压密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1Q-gU-pGbCxKYVMc85t0ceA</t>
+  </si>
+  <si>
     <t>u4p3</t>
   </si>
   <si>
     <t>福利姬千岁娇</t>
   </si>
   <si>
+    <t>回复53获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1Tswc20OzPr8-ZwgDAso1Cw</t>
   </si>
   <si>
@@ -136,6 +175,9 @@
     <t>福利姬完具2019-2020收费资源独家公开</t>
   </si>
   <si>
+    <t>EMbeT6M44aCL5sKM</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1Tb9rjWde_DVmQr2izYFKKA</t>
   </si>
   <si>
@@ -145,6 +187,9 @@
     <t>福利姬软软趴在床单上</t>
   </si>
   <si>
+    <t>回复52获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/18BxQlhiPqoBiXNQEECYb-Q</t>
   </si>
   <si>
@@ -154,6 +199,9 @@
     <t>福利姬麻酥酥</t>
   </si>
   <si>
+    <t>回复51获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1agdgwm-vv5j7lMn75HGi8A</t>
   </si>
   <si>
@@ -163,6 +211,9 @@
     <t>福利姬布丁大法（我是一只啾）</t>
   </si>
   <si>
+    <t>回复50获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lnzUcdUoUBZ9XgflE9Glzg</t>
   </si>
   <si>
@@ -172,6 +223,9 @@
     <t>福利姬你们的小秋秋</t>
   </si>
   <si>
+    <t>回复49获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/14Nd7aauJZ6fUmQ33bRIymA</t>
   </si>
   <si>
@@ -181,6 +235,9 @@
     <t>福利姬元气少女狸花追</t>
   </si>
   <si>
+    <t>回复48获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1hQlkqvLYsjBVtDBplAg6jA</t>
   </si>
   <si>
@@ -190,6 +247,9 @@
     <t>福利姬少女枪械师</t>
   </si>
   <si>
+    <t>回复47获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1fqIxUSGI4VcgW0wi90CusQ</t>
   </si>
   <si>
@@ -199,6 +259,9 @@
     <t>福利姬逐月su</t>
   </si>
   <si>
+    <t>回复46获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1mSmGhA6Yj7LxCLfdkWPQIg</t>
   </si>
   <si>
@@ -208,6 +271,9 @@
     <t>福利姬鱼鱼喵s</t>
   </si>
   <si>
+    <t>回复45获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1xOle1-KIjWJQbzx_bC7qiA</t>
   </si>
   <si>
@@ -217,6 +283,9 @@
     <t>福利姬音波酱（樱木川田）</t>
   </si>
   <si>
+    <t>回复44获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1X3ijdPB-4wQG2hEExWznXg</t>
   </si>
   <si>
@@ -226,6 +295,9 @@
     <t>福利姬dudu小忍</t>
   </si>
   <si>
+    <t>回复43获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/11-kixorGGrFx4Hu-rNc8ww</t>
   </si>
   <si>
@@ -235,6 +307,9 @@
     <t>福利姬安久奈白</t>
   </si>
   <si>
+    <t>回复42获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qhEc4HXO08Ed-9kl0v9NUA</t>
   </si>
   <si>
@@ -244,6 +319,9 @@
     <t>福利姬兜兜飞</t>
   </si>
   <si>
+    <t>回复41获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1kHJckk11VbWvn32ohYfFiQ</t>
   </si>
   <si>
@@ -253,6 +331,9 @@
     <t>福利姬发条少女YoKi</t>
   </si>
   <si>
+    <t>回复40获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qu8lpPrpqSWLjxvXwDq_sQ</t>
   </si>
   <si>
@@ -262,6 +343,9 @@
     <t>福利姬斯洛克甜心</t>
   </si>
   <si>
+    <t>回复39获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1DZ4rFMJcEUJScT-nTB40lA</t>
   </si>
   <si>
@@ -271,6 +355,9 @@
     <t>福利姬快点亲亲我吖</t>
   </si>
   <si>
+    <t>回复38获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/19OBPNGDhx5dT9E98sjo_SQ</t>
   </si>
   <si>
@@ -280,6 +367,9 @@
     <t>福利姬萌犬一只</t>
   </si>
   <si>
+    <t>回复37获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1OSFH_fTwn2rIVTA7QaHtCg</t>
   </si>
   <si>
@@ -289,6 +379,9 @@
     <t>福利姬千舞樱洛</t>
   </si>
   <si>
+    <t>回复36获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1lHw-PBOig9goen8uQ2eyOQ</t>
   </si>
   <si>
@@ -298,6 +391,9 @@
     <t>福利姬咬一口小奈樱（九尾狐狸m）</t>
   </si>
   <si>
+    <t>回复35获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1JAT92T73uge4rmUgkKAIpw</t>
   </si>
   <si>
@@ -307,6 +403,9 @@
     <t>福利姬喵鱻姬</t>
   </si>
   <si>
+    <t>回复34获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1QO8E_-VWQiTML0rWRUDT1w</t>
   </si>
   <si>
@@ -316,6 +415,9 @@
     <t>福利姬Kanami酱</t>
   </si>
   <si>
+    <t>回复33获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_eIsnZlXyKB48NqtsViA1g</t>
   </si>
   <si>
@@ -325,6 +427,9 @@
     <t>福利姬皮皮娘</t>
   </si>
   <si>
+    <t>回复32获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1YbDLR0qdMp92FxQM_EB0KQ</t>
   </si>
   <si>
@@ -334,6 +439,9 @@
     <t>福利姬俄罗斯合法萝莉Rocksy</t>
   </si>
   <si>
+    <t>回复31获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/17h2C9KP8IDaHy54xvAIOvA</t>
   </si>
   <si>
@@ -343,6 +451,9 @@
     <t>福利姬猫性大扎</t>
   </si>
   <si>
+    <t>回复30获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1CjTdXVe3UBUlKbVB7tLt7g</t>
   </si>
   <si>
@@ -352,6 +463,9 @@
     <t>福利姬甜心奶猫酱</t>
   </si>
   <si>
+    <t>回复29获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1BEZ4VcX5sxNcKv3oszk7zw</t>
   </si>
   <si>
@@ -361,6 +475,9 @@
     <t>摄影师宇航员</t>
   </si>
   <si>
+    <t>回复28获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1Ft81rAx2RQ8o69iVOi__fQ</t>
   </si>
   <si>
@@ -370,6 +487,9 @@
     <t>福利姬夏茉果果</t>
   </si>
   <si>
+    <t>回复27获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1tEzn_Or2wClSEEsqwD1XYA</t>
   </si>
   <si>
@@ -379,6 +499,9 @@
     <t>福利姬蛋黄姬</t>
   </si>
   <si>
+    <t>回复26获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1owplH3jaftHHTpymQOJDpw</t>
   </si>
   <si>
@@ -388,6 +511,9 @@
     <t>福利姬FSS（冯珊珊）</t>
   </si>
   <si>
+    <t>回复25获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_0kQk9VzUJd1QQPf-MF9ag</t>
   </si>
   <si>
@@ -397,6 +523,9 @@
     <t>福利姬恶犬</t>
   </si>
   <si>
+    <t>回复24获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1qPrHxchzhtyUdhz9Iom4KQ </t>
   </si>
   <si>
@@ -406,6 +535,9 @@
     <t>福利姬萌汁</t>
   </si>
   <si>
+    <t>回复23获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1wI2vjYD_uXcKGiKP2aHl5A</t>
   </si>
   <si>
@@ -415,6 +547,9 @@
     <t>福利姬三寸萝莉</t>
   </si>
   <si>
+    <t>回复21获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1O1bVuyIDeMbgtqXdNQduZQ</t>
   </si>
   <si>
@@ -424,6 +559,9 @@
     <t>福利姬Ran冉酱</t>
   </si>
   <si>
+    <t>回复22获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1_tTQb-rJQk4CzmsyA94QZQ</t>
   </si>
   <si>
@@ -433,6 +571,9 @@
     <t>福利姬吃一口兔子</t>
   </si>
   <si>
+    <t>回复20获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1TWiEnbFAYMu0fl4aRy41vA</t>
   </si>
   <si>
@@ -442,6 +583,9 @@
     <t>福利姬隔壁小姐姐</t>
   </si>
   <si>
+    <t>回复19获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1G7MwELS1BVX3kKsyGy4RGw</t>
   </si>
   <si>
@@ -451,6 +595,9 @@
     <t>福利姬猫女王的日常</t>
   </si>
   <si>
+    <t>回复18获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/19VYxpiPxXE9yanBTnQ-Z0w</t>
   </si>
   <si>
@@ -460,6 +607,9 @@
     <t>福利姬萌白酱（甜味弥漫）</t>
   </si>
   <si>
+    <t>回复17获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1UZf8_zAy-VWKi3SKHqv64A</t>
   </si>
   <si>
@@ -469,6 +619,9 @@
     <t>福利姬私人玩物</t>
   </si>
   <si>
+    <t>回复10获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1idk-N7cTn_m2qQLfOALxEQ</t>
   </si>
   <si>
@@ -478,6 +631,9 @@
     <t>福利姬芝麻酱</t>
   </si>
   <si>
+    <t>回复16获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
   </si>
   <si>
@@ -487,6 +643,9 @@
     <t>福利姬我是你可爱的小猫</t>
   </si>
   <si>
+    <t>回复15获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
   </si>
   <si>
@@ -496,6 +655,9 @@
     <t>福利姬由衣酱yu1</t>
   </si>
   <si>
+    <t>回复14获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
   </si>
   <si>
@@ -505,12 +667,21 @@
     <t>福利姬西尔酱</t>
   </si>
   <si>
+    <t>回复13获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
   </si>
   <si>
     <t>qbmd</t>
   </si>
   <si>
+    <t>福利姬桜井寧寧</t>
+  </si>
+  <si>
+    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1OyElOIh84ZUTo8o2-rd5dg</t>
   </si>
   <si>
@@ -520,6 +691,21 @@
     <t>福利姬少女映画</t>
   </si>
   <si>
+    <t>回复11获取解压密码</t>
+  </si>
+  <si>
+    <t>ueWr1bnwBr281KlF</t>
+  </si>
+  <si>
+    <t>IW5PyuWWRj4VDz17</t>
+  </si>
+  <si>
+    <t>bo8zgC4nLjIAgYZK</t>
+  </si>
+  <si>
+    <t>O1yk0ZAgcGfdMlOX</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1YRK78YometrXBrFAkhdHnQ</t>
   </si>
   <si>
@@ -529,6 +715,9 @@
     <t>福利姬柚木Yuzuki</t>
   </si>
   <si>
+    <t>回复8获取解压密码</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iIvLK0lFLDbbvekRqIbNpA</t>
   </si>
   <si>
@@ -538,6 +727,9 @@
     <t>福利姬完具少女</t>
   </si>
   <si>
+    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1bkpLMmbwGySgnaD_QpLM0g</t>
   </si>
   <si>
@@ -547,6 +739,9 @@
     <t>福利姬饲育系少女X</t>
   </si>
   <si>
+    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1ARAZcR2d6OxONyphespE5Q</t>
   </si>
   <si>
@@ -556,6 +751,9 @@
     <t>福利姬习呆呆</t>
   </si>
   <si>
+    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1QCtWb4ifOAIIkvs4bG4sQw</t>
   </si>
   <si>
@@ -565,6 +763,9 @@
     <t>福利姬元气小奈音</t>
   </si>
   <si>
+    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1DZmPtFzEewL42i7wRBKKuQ</t>
   </si>
   <si>
@@ -574,6 +775,9 @@
     <t>福利姬原来是茜公举殿下</t>
   </si>
   <si>
+    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
+  </si>
+  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
   </si>
   <si>
@@ -583,6 +787,9 @@
     <t>福利姬麻花酱</t>
   </si>
   <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
   </si>
   <si>
@@ -592,247 +799,154 @@
     <t>福利姬Shika小鹿鹿</t>
   </si>
   <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
+  </si>
+  <si>
     <t>dr3t</t>
   </si>
   <si>
-    <t>EMbeT6M44aCL5sKM</t>
-  </si>
-  <si>
-    <t>回复63获取解压密码</t>
-  </si>
-  <si>
-    <t>回复62获取解压密码</t>
-  </si>
-  <si>
-    <t>回复61获取解压密码</t>
-  </si>
-  <si>
-    <t>回复60获取解压密码</t>
-  </si>
-  <si>
-    <t>回复59获取解压密码</t>
-  </si>
-  <si>
-    <t>回复58获取解压密码</t>
-  </si>
-  <si>
-    <t>回复57获取解压密码</t>
-  </si>
-  <si>
-    <t>回复56获取解压密码</t>
-  </si>
-  <si>
-    <t>回复55获取解压密码</t>
-  </si>
-  <si>
-    <t>回复54获取解压密码</t>
-  </si>
-  <si>
-    <t>回复53获取解压密码</t>
-  </si>
-  <si>
-    <t>回复52获取解压密码</t>
-  </si>
-  <si>
-    <t>回复51获取解压密码</t>
-  </si>
-  <si>
-    <t>回复50获取解压密码</t>
-  </si>
-  <si>
-    <t>回复49获取解压密码</t>
-  </si>
-  <si>
-    <t>回复48获取解压密码</t>
-  </si>
-  <si>
-    <t>回复47获取解压密码</t>
-  </si>
-  <si>
-    <t>回复46获取解压密码</t>
-  </si>
-  <si>
-    <t>回复45获取解压密码</t>
-  </si>
-  <si>
-    <t>回复44获取解压密码</t>
-  </si>
-  <si>
-    <t>回复43获取解压密码</t>
-  </si>
-  <si>
-    <t>回复42获取解压密码</t>
-  </si>
-  <si>
-    <t>回复41获取解压密码</t>
-  </si>
-  <si>
-    <t>回复40获取解压密码</t>
-  </si>
-  <si>
-    <t>回复39获取解压密码</t>
-  </si>
-  <si>
-    <t>回复38获取解压密码</t>
-  </si>
-  <si>
-    <t>回复37获取解压密码</t>
-  </si>
-  <si>
-    <t>回复36获取解压密码</t>
-  </si>
-  <si>
-    <t>回复35获取解压密码</t>
-  </si>
-  <si>
-    <t>回复34获取解压密码</t>
-  </si>
-  <si>
-    <t>回复33获取解压密码</t>
-  </si>
-  <si>
-    <t>回复32获取解压密码</t>
-  </si>
-  <si>
-    <t>回复31获取解压密码</t>
-  </si>
-  <si>
-    <t>回复30获取解压密码</t>
-  </si>
-  <si>
-    <t>回复29获取解压密码</t>
-  </si>
-  <si>
-    <t>回复28获取解压密码</t>
-  </si>
-  <si>
-    <t>回复27获取解压密码</t>
-  </si>
-  <si>
-    <t>回复26获取解压密码</t>
-  </si>
-  <si>
-    <t>回复25获取解压密码</t>
-  </si>
-  <si>
-    <t>回复24获取解压密码</t>
-  </si>
-  <si>
-    <t>回复23获取解压密码</t>
-  </si>
-  <si>
-    <t>回复21获取解压密码</t>
-  </si>
-  <si>
-    <t>回复22获取解压密码</t>
-  </si>
-  <si>
-    <t>回复20获取解压密码</t>
-  </si>
-  <si>
-    <t>回复19获取解压密码</t>
-  </si>
-  <si>
-    <t>回复18获取解压密码</t>
-  </si>
-  <si>
-    <t>回复17获取解压密码</t>
-  </si>
-  <si>
-    <t>回复10获取解压密码</t>
-  </si>
-  <si>
-    <t>回复16获取解压密码</t>
-  </si>
-  <si>
-    <t>回复15获取解压密码</t>
-  </si>
-  <si>
-    <t>回复14获取解压密码</t>
-  </si>
-  <si>
-    <t>回复13获取解压密码</t>
-  </si>
-  <si>
-    <t>回复11获取解压密码</t>
-  </si>
-  <si>
-    <t>回复8获取解压密码</t>
+    <t>福利姬过期米线线喵</t>
   </si>
   <si>
     <t>回复1获取解压密码RoQwYh0OsHgQlfbu</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/xg4sM?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>福利姬ATFMaker</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/vX1sW?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萝莉邻座怪阿松（怪蜀黍的乖萝莉）</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/ko6CN?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬萌萌的奶卉</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/887TM?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小蔡头喵喵</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/0y9cZ?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬小鸟酱</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/z6VCe?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬星之迟迟</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/O2MuV?path=%2F</t>
+  </si>
+  <si>
+    <t>福利姬赤酒央子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/147J5xWXh4ZyEitYposSwDw</t>
+  </si>
+  <si>
+    <t>tmdp</t>
+  </si>
+  <si>
+    <t>福利姬喵喵er</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1IawsFJddfurEciewP3aydw</t>
+  </si>
+  <si>
+    <t>m8pq</t>
+  </si>
+  <si>
+    <t>福利姬叫我脚丫子</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1eLXqMBqDPkuoOLHOk-tHUw</t>
+  </si>
+  <si>
+    <t>ksys</t>
+  </si>
+  <si>
+    <t>福利姬猫性少女</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1mab9RfeSlSGra6ovsUCHyQ</t>
+  </si>
+  <si>
+    <t>jdvv</t>
+  </si>
+  <si>
+    <t>福利姬眼酱大魔王</t>
+  </si>
+  <si>
+    <t>https://pan.1flj.fun/#/s/eBpHK?path=%2F</t>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复12获取解压密码mY2rIjcO0SHA128a</t>
+    <t>福利姬JK邪魔暖暖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复5获取解压密码9jDIz0V6KckRBYgv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复6获取解压密码9b2IExfQyKFFEbtZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复7获取解压密码BnTwjMks1Q2IsHSG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复9获取解压密码3P84QeQyn6eKaP9Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ueWr1bnwBr281KlF</t>
-  </si>
-  <si>
-    <t>IW5PyuWWRj4VDz17</t>
-  </si>
-  <si>
-    <t>bo8zgC4nLjIAgYZK</t>
-  </si>
-  <si>
-    <t>O1yk0ZAgcGfdMlOX</t>
-  </si>
-  <si>
-    <t>福利姬过期米线线喵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.coms/1bikvRYhbj7ONTxsw67MnMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1Q-gU-pGbCxKYVMc85t0ceA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬桜井寧寧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>回复75获取解压密码</t>
+  </si>
+  <si>
+    <t>回复74获取解压密码</t>
+  </si>
+  <si>
+    <t>回复73获取解压密码</t>
+  </si>
+  <si>
+    <t>回复72获取解压密码</t>
+  </si>
+  <si>
+    <t>回复71获取解压密码</t>
+  </si>
+  <si>
+    <t>回复70获取解压密码</t>
+  </si>
+  <si>
+    <t>回复69获取解压密码</t>
+  </si>
+  <si>
+    <t>回复68获取解压密码</t>
+  </si>
+  <si>
+    <t>回复67获取解压密码</t>
+  </si>
+  <si>
+    <t>回复66获取解压密码</t>
+  </si>
+  <si>
+    <t>回复65获取解压密码</t>
+  </si>
+  <si>
+    <t>回复64获取解压密码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,13 +976,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -880,16 +1008,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,18 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="85.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="36.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="21.109375" customWidth="1"/>
@@ -1200,896 +1331,896 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>191</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>258</v>
+        <v>223</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,18 +2228,196 @@
         <v>260</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
-        <v>246</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" t="s">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A67" r:id="rId1" location="/s/xg4sM?path=%2F" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A68" r:id="rId2" location="/s/vX1sW?path=%2F" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A69" r:id="rId3" location="/s/ko6CN?path=%2F" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A70" r:id="rId4" location="/s/887TM?path=%2F" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A71" r:id="rId5" location="/s/0y9cZ?path=%2F" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A72" r:id="rId6" location="/s/z6VCe?path=%2F" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A73" r:id="rId7" location="/s/O2MuV?path=%2F" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A66" r:id="rId8" location="/s/eBpHK?path=%2F" display="https://pan.1flj.fun/ - /s/eBpHK?path=%2F" xr:uid="{CACA9B4C-7166-4348-8BBE-0658B7A85C21}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Sprider  爪巴/xyz.xlsx
+++ b/Sprider  爪巴/xyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A8175-F60A-48AC-89B0-E3D0FCC7A1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3AF3D-4933-4CFA-B694-AAE1CD74A86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,9 +631,6 @@
     <t>福利姬芝麻酱</t>
   </si>
   <si>
-    <t>回复16获取解压密码</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1iARO_caYg_nQJXJZewiq1A</t>
   </si>
   <si>
@@ -643,9 +640,6 @@
     <t>福利姬我是你可爱的小猫</t>
   </si>
   <si>
-    <t>回复15获取解压密码</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1XDs6OeZhFpbQlt6kZWA8_g</t>
   </si>
   <si>
@@ -655,9 +649,6 @@
     <t>福利姬由衣酱yu1</t>
   </si>
   <si>
-    <t>回复14获取解压密码</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pan.baidu.com/s/1xuGLgQIGzQQfogLiQjhDZQ</t>
   </si>
   <si>
@@ -667,9 +658,6 @@
     <t>福利姬西尔酱</t>
   </si>
   <si>
-    <t>回复13获取解压密码</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://pan.baidu.com/s/1QO5NvcNJr0UM31MHrti-1A</t>
   </si>
   <si>
@@ -776,30 +764,6 @@
   </si>
   <si>
     <t>回复4获取解压密码fCduSQdW4az8ZPfj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
-  </si>
-  <si>
-    <t>p3f9</t>
-  </si>
-  <si>
-    <t>福利姬麻花酱</t>
-  </si>
-  <si>
-    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
-  </si>
-  <si>
-    <t>t882</t>
-  </si>
-  <si>
-    <t>福利姬Shika小鹿鹿</t>
-  </si>
-  <si>
-    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
   </si>
   <si>
     <t xml:space="preserve"> pan.baidu.com/s/1Xn5EfqELoCmbeL0A6iXGnQ</t>
@@ -940,6 +904,54 @@
   </si>
   <si>
     <t>回复64获取解压密码</t>
+  </si>
+  <si>
+    <t>回复13获取解压密码BtwR1AyNHSxIzXTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复14获取解压密码9owiZ4Iu8TtOYjdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复15获取解压密码ErLXcwsvstP8iIX3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复16获取解压密码MfmOI6CIXlY8qOIm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pan.baidu.com/s/1ty2xqre10FbajwQsBYT4Ow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复2获取解压密码6B4jzulTGhw0UYrr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬Shika小鹿鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> pan.baidu.com/s/1K6ldwaIowMJr1UYCf2RFow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3f9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复3获取解压密码YmYdqnod1lNM4E90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬麻花酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -985,7 +997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +1007,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,11 +1030,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1300,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2013,7 @@
       <c r="B49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D49" t="s">
@@ -2026,383 +2045,383 @@
         <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
         <v>204</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>205</v>
       </c>
-      <c r="C52" t="s">
-        <v>206</v>
-      </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
         <v>208</v>
       </c>
-      <c r="B53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" t="s">
-        <v>210</v>
-      </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C56" t="s">
+      <c r="G56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" t="s">
-        <v>254</v>
+        <v>303</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" t="s">
-        <v>258</v>
+        <v>299</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" t="s">
-        <v>262</v>
+        <v>249</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D67" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Sprider  爪巴/xyz.xlsx
+++ b/Sprider  爪巴/xyz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\py文件\Sprider  爪巴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3AF3D-4933-4CFA-B694-AAE1CD74A86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F62071F-15CA-4D19-B425-C13CE36D517C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="318">
   <si>
     <t>地址</t>
   </si>
@@ -951,6 +951,52 @@
   </si>
   <si>
     <t>福利姬麻花酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg0s</t>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1SvFx3qVkVFR8vSZvmuhK_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬きょう肉肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复78获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1C-BlyvljbqkcVtUjMFahWw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6p1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬runa</t>
+  </si>
+  <si>
+    <t>回复77获取解压密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan.baidu.com/s/1Bnqby1gRUbjSLDFu1vTwrQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬铭铭Kizami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复76获取解压密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +1004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +1042,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF282A2D"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282A2D"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1030,12 +1096,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1317,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2424,6 +2493,48 @@
         <v>293</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
